--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_9_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_9_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.9100000000003</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000247606228970465</v>
+        <v>0.001027943970288381</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000247606228970465</v>
+        <v>0.001027943970288381</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>49.79939044310914</v>
+        <v>36.28051904447643</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[24.642403690826086, 74.9563771953922]</t>
+          <t>[15.302038547125854, 57.258999541827]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0002428864234875761</v>
+        <v>0.001115128605711613</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0002428864234875761</v>
+        <v>0.001115128605711613</v>
       </c>
       <c r="P2" t="n">
-        <v>1.566079220708426</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.9119738433844242, 2.2201845980324277]</t>
+          <t>[0.748447499053424, 2.283079345852042]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.658674453497433e-05</v>
+        <v>0.000249252601888017</v>
       </c>
       <c r="S2" t="n">
-        <v>1.658674453497433e-05</v>
+        <v>0.000249252601888017</v>
       </c>
       <c r="T2" t="n">
-        <v>58.30275048307675</v>
+        <v>49.4355076277879</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.511251950703354, 74.09424901545015]</t>
+          <t>[36.601207986566244, 62.269807269009554]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.308709445841828e-09</v>
+        <v>7.774882959665774e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>2.308709445841828e-09</v>
+        <v>7.774882959665774e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>17.95045045045067</v>
+        <v>18.1039839839842</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.46132132132151</v>
+        <v>15.19015015015033</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.43957957957984</v>
+        <v>21.01781781781807</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.9100000000003</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005605498799364006</v>
+        <v>0.02813418718459448</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005605498799364006</v>
+        <v>0.02813418718459448</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>34.11816608374421</v>
+        <v>27.16720309037451</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[11.193415116885141, 57.042917050603286]</t>
+          <t>[3.319335637886411, 51.0150705428626]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.004419288062554427</v>
+        <v>0.02648432784939914</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004419288062554427</v>
+        <v>0.02648432784939914</v>
       </c>
       <c r="P3" t="n">
-        <v>1.603816069400195</v>
+        <v>1.440289725069194</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.672973801669885, 2.534658337130505]</t>
+          <t>[0.19497371824080645, 2.6856057318975814]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.001158393130565427</v>
+        <v>0.02438267407129469</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001158393130565427</v>
+        <v>0.02438267407129469</v>
       </c>
       <c r="T3" t="n">
-        <v>58.99678622933405</v>
+        <v>48.9097788443317</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[44.80013156057231, 73.19344089809579]</t>
+          <t>[35.04148838012806, 62.77806930853535]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.003881422434461e-10</v>
+        <v>7.165113169449455e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>1.003881422434461e-10</v>
+        <v>7.165113169449455e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>17.80684684684707</v>
+        <v>18.39059059059081</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.26462462462479</v>
+        <v>13.66158158158174</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.34906906906934</v>
+        <v>23.11959959959989</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.9100000000003</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03509568931198404</v>
+        <v>0.0001275412456203107</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03509568931198404</v>
+        <v>0.0001275412456203107</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>26.38532543915936</v>
+        <v>41.82691843955279</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[2.7812005891667297, 49.989450289151996]</t>
+          <t>[19.673872142762356, 63.97996473634323]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.02928834371581113</v>
+        <v>0.0004282886995232715</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02928834371581113</v>
+        <v>0.0004282886995232715</v>
       </c>
       <c r="P4" t="n">
-        <v>1.553500271144502</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.3207632138800385, 2.7862373284089657]</t>
+          <t>[1.1258159859711165, 2.35855304323558]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.01467392696765124</v>
+        <v>8.899715004950792e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01467392696765124</v>
+        <v>8.899715004950792e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>56.49291323071725</v>
+        <v>56.15631341494793</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.54732946796619, 70.4384969934683]</t>
+          <t>[43.51497784889994, 68.79764898099592]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.025262180183063e-10</v>
+        <v>1.50464085635349e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>2.025262180183063e-10</v>
+        <v>1.50464085635349e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>17.99831831831855</v>
+        <v>17.24416416416437</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.30726726726743</v>
+        <v>14.90354354354372</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.68936936936966</v>
+        <v>19.58478478478502</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.9100000000003</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.623105277182013e-06</v>
+        <v>0.01168834708232536</v>
       </c>
       <c r="I5" t="n">
-        <v>1.623105277182013e-06</v>
+        <v>0.01168834708232536</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>50.18915223634615</v>
+        <v>29.85635109074131</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[27.99742273279601, 72.38088173989628]</t>
+          <t>[5.721811126121381, 53.990891055361246]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.980292107841343e-05</v>
+        <v>0.01646962308390165</v>
       </c>
       <c r="O5" t="n">
-        <v>3.980292107841343e-05</v>
+        <v>0.01646962308390165</v>
       </c>
       <c r="P5" t="n">
-        <v>2.056658253701426</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.5912371198362711, 2.5220793875665803]</t>
+          <t>[0.8365001460008861, 2.874289975356425]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.754019152144792e-11</v>
+        <v>0.0006447774461866285</v>
       </c>
       <c r="S5" t="n">
-        <v>1.754019152144792e-11</v>
+        <v>0.0006447774461866285</v>
       </c>
       <c r="T5" t="n">
-        <v>53.95405594501952</v>
+        <v>57.56097141035458</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[42.118092368359925, 65.79001952167911]</t>
+          <t>[44.048489066390346, 71.07345375431882]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>7.041256466777668e-12</v>
+        <v>5.016520532308277e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>7.041256466777668e-12</v>
+        <v>5.016520532308277e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>16.08360360360381</v>
+        <v>16.81425425425446</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.31249249249267</v>
+        <v>12.94506506506523</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.85471471471494</v>
+        <v>20.6834434434437</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.9100000000003</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006864051857743636</v>
+        <v>3.278643245119284e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006864051857743636</v>
+        <v>3.278643245119284e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>32.30942469108464</v>
+        <v>48.7677008320089</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[5.478226846137602, 59.14062253603167]</t>
+          <t>[29.605350705420904, 67.9300509585969]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.01936941091414157</v>
+        <v>6.043353582896316e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01936941091414157</v>
+        <v>6.043353582896316e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>2.257921446724196</v>
+        <v>1.66671081721981</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.528342372016657, 2.987500521431735]</t>
+          <t>[1.2012896833546556, 2.132131951084965]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.405460765546707e-07</v>
+        <v>4.934422426217111e-09</v>
       </c>
       <c r="S6" t="n">
-        <v>1.405460765546707e-07</v>
+        <v>4.934422426217111e-09</v>
       </c>
       <c r="T6" t="n">
-        <v>57.3837993400149</v>
+        <v>59.59679294980808</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.62246977028008, 71.14512890974973]</t>
+          <t>[47.70267917161412, 71.49090672800203]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>9.127543165732277e-11</v>
+        <v>3.9013237085328e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>9.127543165732277e-11</v>
+        <v>3.9013237085328e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>15.31771771771791</v>
+        <v>17.53077077077099</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.54138138138154</v>
+        <v>15.76336336336356</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.09405405405428</v>
+        <v>19.29817817817841</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.9100000000003</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007325210311897035</v>
+        <v>0.03099943804893068</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0007325210311897035</v>
+        <v>0.03099943804893068</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>37.99744226281611</v>
+        <v>25.30270668385357</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[14.686153875700576, 61.30873064993164]</t>
+          <t>[2.2034458488139634, 48.40196751889317]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.001991384262240992</v>
+        <v>0.03251486979480278</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001991384262240992</v>
+        <v>0.03251486979480278</v>
       </c>
       <c r="P7" t="n">
-        <v>1.79250031285904</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.0755001877154236, 2.5095004380026573]</t>
+          <t>[0.5471843060306547, 2.987500521431736]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>8.179350519110784e-06</v>
+        <v>0.005491244830893249</v>
       </c>
       <c r="S7" t="n">
-        <v>8.179350519110784e-06</v>
+        <v>0.005491244830893249</v>
       </c>
       <c r="T7" t="n">
-        <v>58.58665123603648</v>
+        <v>53.22967857153009</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.50695979366387, 71.6663426784091]</t>
+          <t>[40.12954357039311, 66.32981357266706]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.181232889280182e-11</v>
+        <v>1.864139953511312e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>1.181232889280182e-11</v>
+        <v>1.864139953511312e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>17.08882882882904</v>
+        <v>17.14862862862883</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.36036036036054</v>
+        <v>12.5151551551553</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.81729729729755</v>
+        <v>21.78210210210236</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.9100000000003</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005506391882635242</v>
+        <v>0.001138975248351271</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005506391882635242</v>
+        <v>0.001138975248351271</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>34.72745107293963</v>
+        <v>46.80024820076011</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[8.728665794143275, 60.726236351735984]</t>
+          <t>[15.76762588172474, 77.83287051979548]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.009981472927443669</v>
+        <v>0.003961676057310903</v>
       </c>
       <c r="O8" t="n">
-        <v>0.009981472927443669</v>
+        <v>0.003961676057310903</v>
       </c>
       <c r="P8" t="n">
-        <v>1.880552959806503</v>
+        <v>1.905710858934349</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.0251843894597341, 2.7359215301532727]</t>
+          <t>[1.1887107337907334, 2.6227109840779654]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.005660223218356e-05</v>
+        <v>2.813854661276594e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>6.005660223218356e-05</v>
+        <v>2.813854661276594e-06</v>
       </c>
       <c r="T8" t="n">
-        <v>54.9498212512699</v>
+        <v>63.0153576098115</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[40.53322789624885, 69.36641460629093]</t>
+          <t>[46.303269721149135, 79.72744549847386]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.022085971413844e-09</v>
+        <v>1.350352718532122e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>1.022085971413844e-09</v>
+        <v>1.350352718532122e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>16.75375375375396</v>
+        <v>16.62318318318339</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.49873873873891</v>
+        <v>13.90042042042059</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.00876876876901</v>
+        <v>19.34594594594618</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.9100000000003</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.006523790098558746</v>
+        <v>0.008960261999606978</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006523790098558746</v>
+        <v>0.008960261999606978</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>35.8535646349374</v>
+        <v>33.35171066380452</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[9.393881515722349, 62.31324775415245]</t>
+          <t>[7.780198870568384, 58.923222457040666]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.009027923847851893</v>
+        <v>0.01173833349337294</v>
       </c>
       <c r="O9" t="n">
-        <v>0.009027923847851893</v>
+        <v>0.01173833349337294</v>
       </c>
       <c r="P9" t="n">
-        <v>1.679289766783733</v>
+        <v>1.415131825941349</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.7610264486173479, 2.5975530849501185]</t>
+          <t>[0.42139481039142535, 2.4088688414912722]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0006151072890467901</v>
+        <v>0.006263414616181961</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0006151072890467901</v>
+        <v>0.006263414616181961</v>
       </c>
       <c r="T9" t="n">
-        <v>59.23724582151988</v>
+        <v>54.85779905250182</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[44.06991428802893, 74.40457735501084]</t>
+          <t>[40.24542084069817, 69.47017726430546]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.400346836381686e-10</v>
+        <v>1.510473746080265e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>5.400346836381686e-10</v>
+        <v>1.510473746080265e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>17.51963963963986</v>
+        <v>18.48612612612635</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.02528528528546</v>
+        <v>14.71247247247265</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.01399399399426</v>
+        <v>22.25977977978005</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.9100000000003</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001051648662335647</v>
+        <v>0.007761162267299615</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001051648662335647</v>
+        <v>0.007761162267299615</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>40.16687057989209</v>
+        <v>31.13836939445484</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[14.702563135989408, 65.63117802379477]</t>
+          <t>[5.197068754063459, 57.079670034846224]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.002688604060284261</v>
+        <v>0.01973570625809096</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002688604060284261</v>
+        <v>0.01973570625809096</v>
       </c>
       <c r="P10" t="n">
-        <v>1.79250031285904</v>
+        <v>2.018921405009656</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.0755001877154236, 2.5095004380026573]</t>
+          <t>[1.1509738850989635, 2.886868924920348]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>8.179350519110784e-06</v>
+        <v>2.605158405022401e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>8.179350519110784e-06</v>
+        <v>2.605158405022401e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>60.50509630238375</v>
+        <v>58.77863108267499</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[46.246419592199224, 74.76377301256827]</t>
+          <t>[45.349584527740745, 72.20767763760924]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.595723884255221e-11</v>
+        <v>2.311506541730068e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>5.595723884255221e-11</v>
+        <v>2.311506541730068e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>17.08882882882904</v>
+        <v>16.19327327327348</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.36036036036054</v>
+        <v>12.89729729729746</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.81729729729755</v>
+        <v>19.48924924924949</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.81000000000028</v>
+        <v>24.05000000000032</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>6.559541130068958e-05</v>
+        <v>0.004743233935778135</v>
       </c>
       <c r="I11" t="n">
-        <v>6.559541130068958e-05</v>
+        <v>0.004743233935778135</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>47.01579814876769</v>
+        <v>31.44761830058168</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[24.37088635819815, 69.66070993933724]</t>
+          <t>[8.089150588709032, 54.80608601245432]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0001319011121643232</v>
+        <v>0.009448071551219961</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0001319011121643232</v>
+        <v>0.009448071551219961</v>
       </c>
       <c r="P11" t="n">
-        <v>1.742184514603348</v>
+        <v>2.031500354573581</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.1258159859711165, 2.35855304323558]</t>
+          <t>[1.2138686329185795, 2.8491320762285817]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>8.899715004950792e-07</v>
+        <v>9.069152162810568e-06</v>
       </c>
       <c r="S11" t="n">
-        <v>8.899715004950792e-07</v>
+        <v>9.069152162810568e-06</v>
       </c>
       <c r="T11" t="n">
-        <v>68.48735187246875</v>
+        <v>51.85024147986725</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[54.90061761692188, 82.07408612801562]</t>
+          <t>[38.957435444296074, 64.74304751543843]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.228528555609955e-13</v>
+        <v>2.466653548083286e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>3.228528555609955e-13</v>
+        <v>2.466653548083286e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>17.20802802802823</v>
+        <v>16.27407407407429</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.87231231231249</v>
+        <v>13.14444444444462</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.54374374374398</v>
+        <v>19.40370370370396</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.81000000000028</v>
+        <v>24.05000000000032</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003063190395488635</v>
+        <v>0.0005162325536504087</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003063190395488635</v>
+        <v>0.0005162325536504087</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>34.63116201258115</v>
+        <v>40.36051305256965</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[10.505765938520305, 58.756558086641995]</t>
+          <t>[15.518073436139574, 65.20295266899973]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.005890446286513029</v>
+        <v>0.002053454580201342</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005890446286513029</v>
+        <v>0.002053454580201342</v>
       </c>
       <c r="P12" t="n">
-        <v>2.006342455445734</v>
+        <v>2.169868799776734</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.2390265320464247, 2.7736583788450426]</t>
+          <t>[1.5535002711445012, 2.7862373284089665]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.770845921957644e-06</v>
+        <v>7.48333395250711e-09</v>
       </c>
       <c r="S12" t="n">
-        <v>3.770845921957644e-06</v>
+        <v>7.48333395250711e-09</v>
       </c>
       <c r="T12" t="n">
-        <v>49.89873227494194</v>
+        <v>50.93694511056864</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[36.37848315228624, 63.41898139759764]</t>
+          <t>[37.382745652169206, 64.49114456896808]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.330381887460931e-09</v>
+        <v>1.471665234120678e-09</v>
       </c>
       <c r="W12" t="n">
-        <v>2.330381887460931e-09</v>
+        <v>1.471665234120678e-09</v>
       </c>
       <c r="X12" t="n">
-        <v>16.2070070070072</v>
+        <v>15.74444444444465</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.29927927927944</v>
+        <v>13.38518518518536</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.11473473473496</v>
+        <v>18.10370370370395</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.81000000000028</v>
+        <v>24.05000000000032</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001177964908823936</v>
+        <v>0.003136220578632165</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001177964908823936</v>
+        <v>0.003136220578632165</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>43.69944938183788</v>
+        <v>37.26814482250946</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[18.50992999514702, 68.88896876852874]</t>
+          <t>[10.920551565143633, 63.61573807987528]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.001079992639690497</v>
+        <v>0.006592946230671082</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001079992639690497</v>
+        <v>0.006592946230671082</v>
       </c>
       <c r="P13" t="n">
-        <v>2.169868799776734</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.603816069400195, 2.7359215301532727]</t>
+          <t>[0.9497106920761951, 2.6856057318975797]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>8.815312924070895e-10</v>
+        <v>0.0001176044800996756</v>
       </c>
       <c r="S13" t="n">
-        <v>8.815312924070895e-10</v>
+        <v>0.0001176044800996756</v>
       </c>
       <c r="T13" t="n">
-        <v>61.14049108613873</v>
+        <v>74.2152817906464</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[47.97719675583282, 74.30378541644464]</t>
+          <t>[59.57069291119576, 88.85987067009704]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.023004152031717e-12</v>
+        <v>2.726707748479384e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>4.023004152031717e-12</v>
+        <v>2.726707748479384e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>15.58732732732751</v>
+        <v>17.09259259259282</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.44228228228245</v>
+        <v>13.77037037037056</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.73237237237258</v>
+        <v>20.41481481481508</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.81000000000028</v>
+        <v>24.05000000000032</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0001697538928591147</v>
+        <v>1.093281123509815e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001697538928591147</v>
+        <v>1.093281123509815e-05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>54.58271974977176</v>
+        <v>51.49451822603526</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[26.084301552073484, 83.08113794747004]</t>
+          <t>[25.837791355396448, 77.15124509667407]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.0003622088040649007</v>
+        <v>0.0002043715423702963</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0003622088040649007</v>
+        <v>0.0002043715423702963</v>
       </c>
       <c r="P14" t="n">
-        <v>1.805079262422964</v>
+        <v>2.106974051957119</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.1887107337907334, 2.4214477910551953]</t>
+          <t>[1.591237119836272, 2.6227109840779654]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.417204322315627e-07</v>
+        <v>1.607427524419336e-10</v>
       </c>
       <c r="S14" t="n">
-        <v>4.417204322315627e-07</v>
+        <v>1.607427524419336e-10</v>
       </c>
       <c r="T14" t="n">
-        <v>62.97749384606536</v>
+        <v>62.1181509287626</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[46.16504901145609, 79.78993868067462]</t>
+          <t>[48.67565683812134, 75.56064501940386]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.59857349579795e-09</v>
+        <v>4.691358412856061e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>1.59857349579795e-09</v>
+        <v>4.691358412856061e-12</v>
       </c>
       <c r="X14" t="n">
-        <v>16.96968968968989</v>
+        <v>15.9851851851854</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.63397397397415</v>
+        <v>14.0111111111113</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.30540540540563</v>
+        <v>17.9592592592595</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_9_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_9_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.86000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001027943970288381</v>
+        <v>3.974697574404829e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001027943970288381</v>
+        <v>3.974697574404829e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>36.28051904447643</v>
+        <v>42.73841138751423</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[15.302038547125854, 57.258999541827]</t>
+          <t>[22.735140960545806, 62.74168181448266]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.001115128605711613</v>
+        <v>8.963153055141504e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001115128605711613</v>
+        <v>8.963153055141504e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.515763422452733</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.748447499053424, 2.283079345852042]</t>
+          <t>[1.1761317842268086, 2.283079345852042]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.000249252601888017</v>
+        <v>1.141401821946886e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>0.000249252601888017</v>
+        <v>1.141401821946886e-07</v>
       </c>
       <c r="T2" t="n">
-        <v>49.4355076277879</v>
+        <v>51.66871243534594</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[36.601207986566244, 62.269807269009554]</t>
+          <t>[39.66928693426481, 63.668137936427065]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>7.774882959665774e-10</v>
+        <v>3.695577177609266e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>7.774882959665774e-10</v>
+        <v>3.695577177609266e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>18.1039839839842</v>
+        <v>17.30642642642664</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.19015015015033</v>
+        <v>15.20288288288307</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.01781781781807</v>
+        <v>19.40996996997021</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.86000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02813418718459448</v>
+        <v>0.005802959397528396</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02813418718459448</v>
+        <v>0.005802959397528396</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>27.16720309037451</v>
+        <v>32.96936937358475</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[3.319335637886411, 51.0150705428626]</t>
+          <t>[9.943549334995254, 55.995189412174255]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.02648432784939914</v>
+        <v>0.006006481391430452</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02648432784939914</v>
+        <v>0.006006481391430452</v>
       </c>
       <c r="P3" t="n">
-        <v>1.440289725069194</v>
+        <v>1.616395018964118</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.19497371824080645, 2.6856057318975814]</t>
+          <t>[0.6855527512338089, 2.5472372866944273]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.02438267407129469</v>
+        <v>0.001069427698806358</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02438267407129469</v>
+        <v>0.001069427698806358</v>
       </c>
       <c r="T3" t="n">
-        <v>48.9097788443317</v>
+        <v>54.04183729554388</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[35.04148838012806, 62.77806930853535]</t>
+          <t>[40.276670222290946, 67.80700436879681]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.165113169449455e-09</v>
+        <v>4.703821776530503e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>7.165113169449455e-09</v>
+        <v>4.703821776530503e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>18.39059059059081</v>
+        <v>17.73669669669691</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.66158158158174</v>
+        <v>14.19891891891909</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.11959959959989</v>
+        <v>21.27447447447474</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.86000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001275412456203107</v>
+        <v>0.0003081019080601877</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001275412456203107</v>
+        <v>0.0003081019080601877</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>41.82691843955279</v>
+        <v>49.64279886817964</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[19.673872142762356, 63.97996473634323]</t>
+          <t>[22.65912223111232, 76.62647550524696]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0004282886995232715</v>
+        <v>0.0005754995740971935</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0004282886995232715</v>
+        <v>0.0005754995740971935</v>
       </c>
       <c r="P4" t="n">
-        <v>1.742184514603348</v>
+        <v>1.704447665911579</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.1258159859711165, 2.35855304323558]</t>
+          <t>[1.0503422885875784, 2.35855304323558]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>8.899715004950792e-07</v>
+        <v>4.007484533552486e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>8.899715004950792e-07</v>
+        <v>4.007484533552486e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>56.15631341494793</v>
+        <v>71.45720758748516</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.51497784889994, 68.79764898099592]</t>
+          <t>[55.49560835250034, 87.41880682246997]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.50464085635349e-11</v>
+        <v>1.199840227172899e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>1.50464085635349e-11</v>
+        <v>1.199840227172899e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>17.24416416416437</v>
+        <v>17.40204204204226</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.90354354354372</v>
+        <v>14.91603603603622</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.58478478478502</v>
+        <v>19.88804804804829</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.86000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01168834708232536</v>
+        <v>0.004469841752338666</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01168834708232536</v>
+        <v>0.004469841752338666</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>29.85635109074131</v>
+        <v>34.83366369599453</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[5.721811126121381, 53.990891055361246]</t>
+          <t>[7.439429069416519, 62.22789832257254]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.01646962308390165</v>
+        <v>0.01385841504665786</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01646962308390165</v>
+        <v>0.01385841504665786</v>
       </c>
       <c r="P5" t="n">
-        <v>1.855395060678656</v>
+        <v>2.169868799776734</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.8365001460008861, 2.874289975356425]</t>
+          <t>[1.427710775505271, 2.912026824048197]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0006447774461866285</v>
+        <v>4.56675067539436e-07</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0006447774461866285</v>
+        <v>4.56675067539436e-07</v>
       </c>
       <c r="T5" t="n">
-        <v>57.56097141035458</v>
+        <v>50.09067091667787</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.048489066390346, 71.07345375431882]</t>
+          <t>[35.92307821134493, 64.25826362201082]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.016520532308277e-11</v>
+        <v>6.742775005008639e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>5.016520532308277e-11</v>
+        <v>6.742775005008639e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>16.81425425425446</v>
+        <v>15.63315315315335</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.94506506506523</v>
+        <v>12.81249249249265</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.6834434434437</v>
+        <v>18.45381381381404</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.86000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.278643245119284e-06</v>
+        <v>1.762549373895972e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>3.278643245119284e-06</v>
+        <v>1.762549373895972e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>48.7677008320089</v>
+        <v>52.43762743442186</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[29.605350705420904, 67.9300509585969]</t>
+          <t>[32.14162434729916, 72.73363052154455]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>6.043353582896316e-06</v>
+        <v>4.654738500420308e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>6.043353582896316e-06</v>
+        <v>4.654738500420308e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.66671081721981</v>
+        <v>1.46544762419704</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.2012896833546556, 2.132131951084965]</t>
+          <t>[1.0126054398958093, 1.9182898084982707]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.934422426217111e-09</v>
+        <v>5.302956984643004e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>4.934422426217111e-09</v>
+        <v>5.302956984643004e-08</v>
       </c>
       <c r="T6" t="n">
-        <v>59.59679294980808</v>
+        <v>68.35580047457142</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.70267917161412, 71.49090672800203]</t>
+          <t>[55.96481293606527, 80.74678801307758]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.9013237085328e-13</v>
+        <v>1.731947918415244e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>3.9013237085328e-13</v>
+        <v>1.731947918415244e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>17.53077077077099</v>
+        <v>18.31039039039062</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.76336336336356</v>
+        <v>16.58930930930952</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.29817817817841</v>
+        <v>20.03147147147171</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.86000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03099943804893068</v>
+        <v>0.003226734305190049</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03099943804893068</v>
+        <v>0.003226734305190049</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>25.30270668385357</v>
+        <v>35.15541219087882</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[2.2034458488139634, 48.40196751889317]</t>
+          <t>[11.371563763998914, 58.93926061775873]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.03251486979480278</v>
+        <v>0.004672139677037057</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03251486979480278</v>
+        <v>0.004672139677037057</v>
       </c>
       <c r="P7" t="n">
-        <v>1.767342413731195</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.5471843060306547, 2.987500521431736]</t>
+          <t>[1.0000264903318863, 2.6352899336418885]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.005491244830893249</v>
+        <v>5.119523595276121e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005491244830893249</v>
+        <v>5.119523595276121e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>53.22967857153009</v>
+        <v>58.82635378384461</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[40.12954357039311, 66.32981357266706]</t>
+          <t>[45.022760090009626, 72.6299474776796]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.864139953511312e-10</v>
+        <v>4.955857946242759e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>1.864139953511312e-10</v>
+        <v>4.955857946242759e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>17.14862862862883</v>
+        <v>16.97177177177198</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5151551551553</v>
+        <v>13.86426426426443</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.78210210210236</v>
+        <v>20.07927927927953</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.86000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001138975248351271</v>
+        <v>0.0004996924472966402</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001138975248351271</v>
+        <v>0.0004996924472966402</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>46.80024820076011</v>
+        <v>39.1760997707101</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[15.76762588172474, 77.83287051979548]</t>
+          <t>[14.821571362965848, 63.53062817845434]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.003961676057310903</v>
+        <v>0.002251601727923935</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003961676057310903</v>
+        <v>0.002251601727923935</v>
       </c>
       <c r="P8" t="n">
-        <v>1.905710858934349</v>
+        <v>2.018921405009657</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.1887107337907334, 2.6227109840779654]</t>
+          <t>[1.3522370781217319, 2.6856057318975814]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.813854661276594e-06</v>
+        <v>2.223267199230605e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>2.813854661276594e-06</v>
+        <v>2.223267199230605e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>63.0153576098115</v>
+        <v>53.38796119712602</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.303269721149135, 79.72744549847386]</t>
+          <t>[40.30476248315583, 66.47115991109621]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.350352718532122e-09</v>
+        <v>1.659092863093292e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>1.350352718532122e-09</v>
+        <v>1.659092863093292e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>16.62318318318339</v>
+        <v>16.20684684684705</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.90042042042059</v>
+        <v>13.6730330330332</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.34594594594618</v>
+        <v>18.74066066066089</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.86000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.008960261999606978</v>
+        <v>3.042259932417579e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008960261999606978</v>
+        <v>3.042259932417579e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>33.35171066380452</v>
+        <v>50.42348427165825</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[7.780198870568384, 58.923222457040666]</t>
+          <t>[29.27422306599, 71.5727454773265]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.01173833349337294</v>
+        <v>1.77334844824184e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01173833349337294</v>
+        <v>1.77334844824184e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.415131825941349</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.42139481039142535, 2.4088688414912722]</t>
+          <t>[1.3270791789938867, 2.308237244979888]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.006263414616181961</v>
+        <v>2.111170349650138e-09</v>
       </c>
       <c r="S9" t="n">
-        <v>0.006263414616181961</v>
+        <v>2.111170349650138e-09</v>
       </c>
       <c r="T9" t="n">
-        <v>54.85779905250182</v>
+        <v>56.0289473867053</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[40.24542084069817, 69.47017726430546]</t>
+          <t>[43.77306917026787, 68.28482560314274]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.510473746080265e-09</v>
+        <v>6.465716850811987e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>1.510473746080265e-09</v>
+        <v>6.465716850811987e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>18.48612612612635</v>
+        <v>16.97177177177198</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.71247247247265</v>
+        <v>15.10726726726745</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.25977977978005</v>
+        <v>18.83627627627651</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.86000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007761162267299615</v>
+        <v>1.049814701836738e-08</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007761162267299615</v>
+        <v>1.049814701836738e-08</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>31.13836939445484</v>
+        <v>61.94966345354672</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[5.197068754063459, 57.079670034846224]</t>
+          <t>[40.47072188790045, 83.42860501919299]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.01973570625809096</v>
+        <v>5.991684870476632e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01973570625809096</v>
+        <v>5.991684870476632e-07</v>
       </c>
       <c r="P10" t="n">
-        <v>2.018921405009656</v>
+        <v>1.930868758062195</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.1509738850989635, 2.886868924920348]</t>
+          <t>[1.5535002711445003, 2.308237244979889]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.605158405022401e-05</v>
+        <v>2.009503674571533e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>2.605158405022401e-05</v>
+        <v>2.009503674571533e-13</v>
       </c>
       <c r="T10" t="n">
-        <v>58.77863108267499</v>
+        <v>72.03254160738032</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.349584527740745, 72.20767763760924]</t>
+          <t>[60.354746014086146, 83.7103372006745]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.311506541730068e-11</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.311506541730068e-11</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X10" t="n">
-        <v>16.19327327327348</v>
+        <v>16.54150150150171</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.89729729729746</v>
+        <v>15.10726726726745</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.48924924924949</v>
+        <v>17.97573573573596</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.05000000000032</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004743233935778135</v>
+        <v>0.007422338315132948</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004743233935778135</v>
+        <v>0.007422338315132948</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>31.44761830058168</v>
+        <v>31.00621665669522</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[8.089150588709032, 54.80608601245432]</t>
+          <t>[9.856263921977046, 52.156169391413385]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.009448071551219961</v>
+        <v>0.004991440567288397</v>
       </c>
       <c r="O11" t="n">
-        <v>0.009448071551219961</v>
+        <v>0.004991440567288397</v>
       </c>
       <c r="P11" t="n">
-        <v>2.031500354573581</v>
+        <v>1.452868674633117</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.2138686329185795, 2.8491320762285817]</t>
+          <t>[0.4842895582110378, 2.421447791055196]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>9.069152162810568e-06</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="S11" t="n">
-        <v>9.069152162810568e-06</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="T11" t="n">
-        <v>51.85024147986725</v>
+        <v>56.62803181087168</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[38.957435444296074, 64.74304751543843]</t>
+          <t>[43.34168773132116, 69.91437589042219]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.466653548083286e-10</v>
+        <v>4.940980957712782e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>2.466653548083286e-10</v>
+        <v>4.940980957712782e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>16.27407407407429</v>
+        <v>18.3043843843846</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.14444444444462</v>
+        <v>14.63397397397415</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.40370370370396</v>
+        <v>21.97479479479506</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.05000000000032</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0005162325536504087</v>
+        <v>0.0002433612524016526</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0005162325536504087</v>
+        <v>0.0002433612524016526</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>40.36051305256965</v>
+        <v>44.82098361940405</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[15.518073436139574, 65.20295266899973]</t>
+          <t>[20.003307188306124, 69.63866005050197]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.002053454580201342</v>
+        <v>0.0007058162547424196</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002053454580201342</v>
+        <v>0.0007058162547424196</v>
       </c>
       <c r="P12" t="n">
-        <v>2.169868799776734</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.5535002711445012, 2.7862373284089665]</t>
+          <t>[1.2012896833546538, 2.5095004380026573]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>7.48333395250711e-09</v>
+        <v>8.309707435483205e-07</v>
       </c>
       <c r="S12" t="n">
-        <v>7.48333395250711e-09</v>
+        <v>8.309707435483205e-07</v>
       </c>
       <c r="T12" t="n">
-        <v>50.93694511056864</v>
+        <v>55.93778505606645</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[37.382745652169206, 64.49114456896808]</t>
+          <t>[41.76546166813115, 70.11010844400175]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.471665234120678e-09</v>
+        <v>4.081526228105758e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>1.471665234120678e-09</v>
+        <v>4.081526228105758e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>15.74444444444465</v>
+        <v>16.77901901901922</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.38518518518536</v>
+        <v>14.30030030030047</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.10370370370395</v>
+        <v>19.25773773773798</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.05000000000032</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003136220578632165</v>
+        <v>0.0003777264059945384</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003136220578632165</v>
+        <v>0.0003777264059945384</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>37.26814482250946</v>
+        <v>46.58233688638045</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[10.920551565143633, 63.61573807987528]</t>
+          <t>[18.674469758231638, 74.49020401452927]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.006592946230671082</v>
+        <v>0.001587943239820477</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006592946230671082</v>
+        <v>0.001587943239820477</v>
       </c>
       <c r="P13" t="n">
-        <v>1.817658211986887</v>
+        <v>1.943447707626119</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.9497106920761951, 2.6856057318975797]</t>
+          <t>[1.2893423303021176, 2.5975530849501194]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.0001176044800996756</v>
+        <v>3.29550035260695e-07</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0001176044800996756</v>
+        <v>3.29550035260695e-07</v>
       </c>
       <c r="T13" t="n">
-        <v>74.2152817906464</v>
+        <v>78.93080338378039</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[59.57069291119576, 88.85987067009704]</t>
+          <t>[63.716588276337376, 94.1450184912234]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.726707748479384e-13</v>
+        <v>1.290079154614432e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>2.726707748479384e-13</v>
+        <v>1.290079154614432e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>17.09259259259282</v>
+        <v>16.44534534534554</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.77037037037056</v>
+        <v>13.96662662662679</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.41481481481508</v>
+        <v>18.92406406406429</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.05000000000032</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.093281123509815e-05</v>
+        <v>4.885917989638777e-06</v>
       </c>
       <c r="I14" t="n">
-        <v>1.093281123509815e-05</v>
+        <v>4.885917989638777e-06</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>51.49451822603526</v>
+        <v>50.13448190622073</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[25.837791355396448, 77.15124509667407]</t>
+          <t>[28.776820102574703, 71.49214370986675]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.0002043715423702963</v>
+        <v>2.263262628909857e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0002043715423702963</v>
+        <v>2.263262628909857e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>2.106974051957119</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.591237119836272, 2.6227109840779654]</t>
+          <t>[1.2516054816103477, 2.232763547596349]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.607427524419336e-10</v>
+        <v>6.053767043212588e-09</v>
       </c>
       <c r="S14" t="n">
-        <v>1.607427524419336e-10</v>
+        <v>6.053767043212588e-09</v>
       </c>
       <c r="T14" t="n">
-        <v>62.1181509287626</v>
+        <v>56.92885422098266</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[48.67565683812134, 75.56064501940386]</t>
+          <t>[44.46219054868017, 69.39551789328516]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.691358412856061e-12</v>
+        <v>6.684208742058217e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>4.691358412856061e-12</v>
+        <v>6.684208742058217e-12</v>
       </c>
       <c r="X14" t="n">
-        <v>15.9851851851854</v>
+        <v>17.20802802802823</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.0111111111113</v>
+        <v>15.34898898898917</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.9592592592595</v>
+        <v>19.0670670670673</v>
       </c>
     </row>
   </sheetData>
